--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1206.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1206.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.7321816686110492</v>
+        <v>1.167948961257935</v>
       </c>
       <c r="B1">
-        <v>1.364792933512622</v>
+        <v>2.360015392303467</v>
       </c>
       <c r="C1">
-        <v>4.948041856077764</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>3.172678221165983</v>
+        <v>2.329549312591553</v>
       </c>
       <c r="E1">
-        <v>1.544494786687391</v>
+        <v>1.233513832092285</v>
       </c>
     </row>
   </sheetData>
